--- a/semester2/ArrayList/results/BenchMark.xlsx
+++ b/semester2/ArrayList/results/BenchMark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\cp_seward\semester2\ArrayList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\cp_seward\semester2\ArrayList\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D096947-158C-41D3-A141-438E25A451E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE3B31-5192-44AD-B2D2-622E9048A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>One By One</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Implementation</t>
   </si>
   <si>
-    <t>Java</t>
+    <t>Java Re-Implementation</t>
   </si>
   <si>
-    <t>Implementation Java</t>
+    <t>Java's Implementation</t>
+  </si>
+  <si>
+    <t>Naïve Implementation</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Java</c:v>
+                  <c:v>Java's Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -822,7 +825,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-3000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-3000000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1179,7 +1182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implementation</c:v>
+                  <c:v>Naïve Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1361,7 +1364,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Java</c:v>
+                  <c:v>Java's Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,7 +1546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implementation Java</c:v>
+                  <c:v>Java Re-Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3625,8 +3628,8 @@
   </sheetPr>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3683,16 +3686,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
